--- a/DESARROLLO/VMRAM/GESTION/VMRAM-LR.xlsx
+++ b/DESARROLLO/VMRAM/GESTION/VMRAM-LR.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -110,9 +110,6 @@
     <t>CU01 - Carga de datos de consumo.</t>
   </si>
   <si>
-    <t>CU03 - Cargar tabla de procesos.</t>
-  </si>
-  <si>
     <t>LISTA DE REQUISITOS DEL SISTEMA VMRAM</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>El sistema debe permitir al usuario  descargar la lista de procesos, que estan consumiendo la memoria ram, en documento pdf cuyo nombre será formulado así: procesosRam[num].pdf , donde num es numero de 3 digitos que empieza desde 001 e inidica la cantidad de veces descargado por el usuario.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar en una gráfica en barra los procesos de usuario que están consumiendo la memoria ram. Identificados con estos detalles: Nombre del proceso, el peso del proceso o aplicación en MB, un inidicador (MB) de margen que ocupa cada proceso  o aplicacion.</t>
+  </si>
+  <si>
+    <t>CU03 - Generar Reporte de procesos.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar en una tabla la lista de procesos que están ocupando en la memoria ram, con estos datos:ID numérico del proceso, Nombre del proceso, tipo de proceso, peso del proceso en MB que ocupa en la gráfica.</t>
   </si>
 </sst>
 </file>
@@ -572,9 +578,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,15 +615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1150,7 @@
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -1183,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>19</v>
@@ -1201,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>8</v>
@@ -1219,16 +1225,16 @@
         <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,25 +1243,25 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>7</v>
@@ -1264,25 +1270,25 @@
         <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1340,7 @@
     <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -1386,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>19</v>
@@ -1397,13 +1403,13 @@
       <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="35">
         <v>2</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="20" t="s">
@@ -1426,7 +1432,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>8</v>
@@ -1437,9 +1443,9 @@
       <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="30"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="33"/>
       <c r="K5" s="20" t="s">
         <v>14</v>
       </c>
@@ -1460,24 +1466,24 @@
         <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="H6" s="38">
         <v>1</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1487,28 +1493,28 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>7</v>
@@ -1517,38 +1523,38 @@
         <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="33">
+        <v>48</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="36">
         <v>3</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
